--- a/unis.xlsx
+++ b/unis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Erläuterung Spalten"/>
@@ -610,7 +610,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -668,7 +668,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -692,6 +692,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -998,13 +1004,13 @@
   </sheetPr>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="19.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="101.57642857142856" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="47.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="19.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="101.57642857142856" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="47.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1058,7 +1064,7 @@
       <c r="B5" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="8" t="s">
@@ -1067,7 +1073,7 @@
       <c r="B6" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="8" t="s">
@@ -1076,7 +1082,7 @@
       <c r="B7" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="8" t="s">
@@ -1299,7 +1305,7 @@
   </sheetPr>
   <dimension ref="A1:Z169"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1411,7 +1417,7 @@
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
       <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
@@ -1491,7 +1497,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="4" t="s">
         <v>26</v>
       </c>
@@ -1571,7 +1577,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4" t="s">
         <v>26</v>
       </c>
@@ -1651,7 +1657,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="4" t="s">
         <v>33</v>
       </c>
@@ -1731,7 +1737,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="4" t="s">
         <v>35</v>
       </c>
@@ -1811,7 +1817,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1891,7 +1897,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="4" t="s">
         <v>36</v>
       </c>
@@ -1971,7 +1977,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="4" t="s">
         <v>37</v>
       </c>
@@ -2051,7 +2057,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="4" t="s">
         <v>37</v>
       </c>
@@ -2131,7 +2137,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="4" t="s">
         <v>38</v>
       </c>
@@ -2211,7 +2217,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="4" t="s">
         <v>39</v>
       </c>
@@ -2291,7 +2297,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="4" t="s">
         <v>39</v>
       </c>
@@ -2371,7 +2377,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="4" t="s">
         <v>40</v>
       </c>
@@ -2451,7 +2457,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="4" t="s">
         <v>40</v>
       </c>
@@ -2531,7 +2537,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="4" t="s">
         <v>40</v>
       </c>
@@ -2611,7 +2617,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="4" t="s">
         <v>42</v>
       </c>
@@ -2691,7 +2697,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="4" t="s">
         <v>42</v>
       </c>
@@ -2771,7 +2777,7 @@
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="4" t="s">
         <v>44</v>
       </c>
@@ -2851,7 +2857,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="4" t="s">
         <v>45</v>
       </c>
@@ -2931,7 +2937,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="4" t="s">
         <v>46</v>
       </c>
@@ -3011,7 +3017,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="4" t="s">
         <v>46</v>
       </c>
@@ -3091,7 +3097,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="4" t="s">
         <v>46</v>
       </c>
@@ -3171,7 +3177,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="4" t="s">
         <v>48</v>
       </c>
@@ -3251,7 +3257,7 @@
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="4" t="s">
         <v>49</v>
       </c>
@@ -3331,7 +3337,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="4" t="s">
         <v>49</v>
       </c>
@@ -3411,7 +3417,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="4" t="s">
         <v>49</v>
       </c>
@@ -3491,7 +3497,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="4" t="s">
         <v>50</v>
       </c>
@@ -3571,7 +3577,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="4" t="s">
         <v>51</v>
       </c>
@@ -3651,7 +3657,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="4" t="s">
         <v>51</v>
       </c>
@@ -3731,7 +3737,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="4" t="s">
         <v>52</v>
       </c>
@@ -3811,7 +3817,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="4" t="s">
         <v>52</v>
       </c>
@@ -3891,7 +3897,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="4" t="s">
         <v>53</v>
       </c>
@@ -3971,7 +3977,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
       <c r="A34" s="4" t="s">
         <v>54</v>
       </c>
@@ -4051,7 +4057,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
       <c r="A35" s="4" t="s">
         <v>55</v>
       </c>
